--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t xml:space="preserve">Monday</t>
   </si>
@@ -37,6 +37,60 @@
     <t xml:space="preserve">Friday</t>
   </si>
   <si>
+    <t xml:space="preserve">Правознавство, Фіз-ра, Геометрія, Психологія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укр. мова, Алгебра,зар. літ., геометрія</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хімія, англ. Мова, геометрія, труди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укр. Мова, Алгебра, фізика, укр. Літ., біологія</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Мистецтво, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Географія,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Англ. Мова/Інформатика, Інформатика/Англ мова</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Вс. Історія, Фіз-ра, Алгебра</t>
   </si>
   <si>
@@ -71,27 +125,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Правознавство, Фіз-ра, Геометрія, Психологія</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Укр. мова, Алгебра,зар. літ., геометрія</t>
-  </si>
-  <si>
-    <t xml:space="preserve">хімія, англ. Мова, геометрія, труди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Укр. Мова, Алгебра, фізика, укр. Літ., біологія</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Мистецтво, </t>
+    <t xml:space="preserve">Укр. мова, алгебра, зар. Літ, основи здр.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Географія, Історія України, </t>
     </r>
     <r>
       <rPr>
@@ -101,17 +146,22 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Географія,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">Англ. Мова/Інформатика, Інформатика/Англ мова</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Укр. мова, фізика, зар. Літ., геометрія</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Мистецтво, географія, Англ. Мова/</t>
     </r>
     <r>
       <rPr>
@@ -121,31 +171,6 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">Англ. Мова/Інформатика, Інформатика/Англ мова</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Укр. мова, фізика, зар. Літ., геометрія</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Мистецтво, географія, Англ. Мова/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t xml:space="preserve">Інформатика</t>
     </r>
     <r>
@@ -157,31 +182,6 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, Інформатика/Англ мова</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Укр. мова, алгебра, зар. Літ, основи здр.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Географія, Історія України, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Англ. Мова/Інформатика, Інформатика/Англ мова</t>
     </r>
   </si>
   <si>
@@ -297,10 +297,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,11 +411,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/test.xlsx
+++ b/src/main/resources/test.xlsx
@@ -300,7 +300,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -314,7 +314,9 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="n">
+        <v>123</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
